--- a/biology/Histoire de la zoologie et de la botanique/Csaba_Csuzdi/Csaba_Csuzdi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Csaba_Csuzdi/Csaba_Csuzdi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Csaba Csuzdi, (5 janvier 1959-), biologiste hongrois, est un des plus grands spécialistes actuels de l'évolution et de la systématique des vers de terre, notamment d'Amérique du Sud et du Moyen-Orient. Il fut l'étudiant d'Andras Zicsi.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1985-1989
-1. Csuzdi, Cs. /1986/: Über ein Vorkommen von Microscolex phosphoreus /Duges, 1837/ /Oligochaeta: Acanthodrilidae/ in Ungarn. - Opusc. Zool. Budapest, 22: 63-66.
+          <t>1985-1989</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1. Csuzdi, Cs. /1986/: Über ein Vorkommen von Microscolex phosphoreus /Duges, 1837/ /Oligochaeta: Acanthodrilidae/ in Ungarn. - Opusc. Zool. Budapest, 22: 63-66.
 2. Zicsi, A. - Csuzdi, Cs. /1986/: Regenwürmer aus Bulgarien /Oligochaeta: Lumbricidae/. - Opusc. Zool. Budapest, 22:113-121.
 3. Zicsi, A. - Csuzdi, Cs. /1986/: Neue Eminoscolex-Arten aus dem Kongo-Gebiet /Oligochaeta: Eudrilidae/. - Acta Zool. Hung. 32(1-2): 181-205.
 4. Zicsi, A. - Csuzdi, Cs. /1986/: Weitere Angaben zur Regenwurmfauna des Kongo-Gebietes /Oligochaeta: Eudrilidae und Glossoscolecidae/. - Acta Zool. Hung. 32(3-4): 385-412.
@@ -525,9 +542,43 @@
 9. Csuzdi, Cs. - Zicsi, A. /1988/: Weitere Angaben zur Lebensweise von Dendrobaena hortensis /Michaelsen, 1890/ /Oligochaeta: Lumbricidae/. - Opusc. Zool. Budapest, 23: 141-147.
 10. Zicsi, A. - Csuzdi, Cs. /1988/: Über einige Thamnodrilus-Arten und andere Regenwürmer aus Ekuador /Oligochaeta: Glossoscolecidae, Lumbricidae, Megascolecidae/ Regenwürmer aus Südamerika, 3. - Opusc. Zool. Budapest, 23: 209-218.
 11. Csuzdi, Cs. - Zicsi, A. /1989/: Neue Dichogaster-Arten aus der Kongo-Region /Oligochaeta: Octochaetidae/. - Mitt. hamb. zool. Mus. Inst., 86: 133-152.
-12. Zicsi, A. - Csuzdi, Cs. /1989/: Eine neue Wegeneriella-Art aus dem Kongo-Gebiet /Oligochaeta: Octochaetidae/. - Miscellanea Zool. Hung. 5: 29-31.
-1990-1994
-13. Zicsi, A. - Dózsa-Farkas, K. - Csuzdi, Cs. /1990/: Terrestrial Oligochaeta from the nature conservation areas of Bátorliget /NE Hungary/ - in: The Bátorliget Nature Reserves - after forty years, 1990, p. 215-220.
+12. Zicsi, A. - Csuzdi, Cs. /1989/: Eine neue Wegeneriella-Art aus dem Kongo-Gebiet /Oligochaeta: Octochaetidae/. - Miscellanea Zool. Hung. 5: 29-31.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Csaba Csuzdi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1990-1994</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13. Zicsi, A. - Dózsa-Farkas, K. - Csuzdi, Cs. /1990/: Terrestrial Oligochaeta from the nature conservation areas of Bátorliget /NE Hungary/ - in: The Bátorliget Nature Reserves - after forty years, 1990, p. 215-220.
 14. Csuzdi, Cs. - Zicsi, A. /1991/: Über die Verbreitung neuer und bekannter Dichogaster und Eutrigaster Arten aus Mittel und Südamerika /Oligochaeta: Octochaetidae/. Regenwürmer aus Südamerika 15.- Acta Zool. Hung., 37(3-4): 177-192.
 15. Csuzdi, Cs. - Zicsi, A. /1991/: Die Bedeutung der Regenwurmart Eisenia lucens (Waga 1857) bei der Zersetzung von Holz-abfällen. - In: Advances in Management and Conservation of Soil Fauna, Ed: G.K.Veeresh, D.Rajagopal,C.A.Viraktamath, Oxford IBH Publ
 16. Zicsi, A.- Csuzdi, Cs. /1991/: Der erste Wiederfund von Zapotecia amecamecae Eisen 1900 aus Mexiko /Oligochaeta: Acanthodrilidae/. - Misc. Zool. Hung., Budapest, 6: 31-34.
@@ -537,9 +588,43 @@
 20. Janossy, L., Szél, Gy. &amp; Csuzdi, Cs. /1993/: The possibility of biomonitoring enviromental pollution of Budapest.- In Ecotoxicology and enviromental chemistry, a global perspective. Abstract book of the first SETAC Congress, Lisbon, p. 196.
 21. Csuzdi, Cs. - Zicsi, A. /1994/: Revision der Gattung Benhamia Michaelsen, 1889 /Oligochaeta: Octochaetidae/. -Revue suisse de Zoologie, 101(1): 215-231.
 22. Csuzdi, Cs. - Zicsi, A. /1994/: Neue Dichogaster Arten aus dem Upemba National Park, Zaire (Oligochaeta: Octochaetidae).- Mitt. hamb. zool. Mus. Inst., 89(suppl.2):47-53.
-23. Csuzdi, Cs. /1994/: Neue Eutrigaster Arten aus Kuba und ihre zoogeographische beziehungen. (Oligochaeta: Octochaetidae). Regenwürmer aus Südamerika 22. - Mitt. hamb. zool. Mus. Inst., 89(suppl. 2): 63-70.
-1995-1999
-24. Csuzdi, Cs. /1995/: A catalogue of Benhamiinae species (Oligochaeta: Acanthodrilidae).- Ann. Naturhist. Mus. Wien, 97B:99-123.
+23. Csuzdi, Cs. /1994/: Neue Eutrigaster Arten aus Kuba und ihre zoogeographische beziehungen. (Oligochaeta: Octochaetidae). Regenwürmer aus Südamerika 22. - Mitt. hamb. zool. Mus. Inst., 89(suppl. 2): 63-70.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Csaba Csuzdi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1995-1999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24. Csuzdi, Cs. /1995/: A catalogue of Benhamiinae species (Oligochaeta: Acanthodrilidae).- Ann. Naturhist. Mus. Wien, 97B:99-123.
 25. Csuzdi, Cs. /1995./: Neue und wenig bekannte Regenwürmer aus Senegal und Sierra Leone (Oligochaeta, Acanthodrilidae: Benhamiinae).- Opusc. Zool. Budapest, 27-28:25-40.
 26. Janossy, L., Bittó, A., Szél, Gy. &amp; Csuzdi, Cs. /1995/: Urban soil biomonitoring by beetle and earthworm populations.- In: Ecological processes: Current status and perspectives. Abstracts of the 7th EurECo, Budapest, p. 252.
 27. Szlávecz, K., Pobozsny, M. &amp; Csuzdi, Cs. /1995/: Woody debris as food source for soil invertebrates.- In: Ecological processes: Current status and perspectives. Abstracts of the 7th EurECo, Budapest, p. 123.
@@ -557,9 +642,43 @@
 39. Csuzdi, Cs., Pavlicek, T. &amp; Nevo, E. /1999/: A new earthworm species Dendrobaena rothschildae sp. nov. from Israel, and comments on the distribution of Dendrobaena species in the Levant (Oligochaeta: Lumbricidae).- Opusc. Zool.. Budapest, 31: 25-32.
 40. Csuzdi, Cs. &amp; Pavlicek, T. /1999/: Earthworms from Israel and the neighbouring countries. I. Genera Dendrobaena Eisen, 1874 and Bimastos Moore, 1891 (Oligochaeta: Lumbricidae).- Israel J.Zool. 45: 467-486.
 41. Zicsi, A. &amp; Csuzdi, Cs. /1999/: Hexachyloscolex gen et sp. n. –eine neue Regenwurmgattung aus Ekuador (Oligochaeta: Glossoscolecidae). Regenwürmer aus Südamerika 31.- Ber. nat-med. Verein Innsbruck, 86: 123-126.
-42. Zicsi A. &amp; Csuzdi, Cs. /1999/: Weitere Angaben zur Regenwurmfauna Frankreichs sowie die Beschreibung fünf neuer Arten (Oligochaeta: Lumbricidae.)- Rev. suisse Zool. 106(4): 983-1003.
-2000-2004
-43 Csuzdi, Cs. /2001/: The first recorded earthworms from Burkina Faso with description of a new species (Oligochaeta: Eudrilidae, Acanthodrilidae). - Misc. Zool. Hung., 13: 29-35.
+42. Zicsi A. &amp; Csuzdi, Cs. /1999/: Weitere Angaben zur Regenwurmfauna Frankreichs sowie die Beschreibung fünf neuer Arten (Oligochaeta: Lumbricidae.)- Rev. suisse Zool. 106(4): 983-1003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Csaba Csuzdi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2000-2004</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>43 Csuzdi, Cs. /2001/: The first recorded earthworms from Burkina Faso with description of a new species (Oligochaeta: Eudrilidae, Acanthodrilidae). - Misc. Zool. Hung., 13: 29-35.
 44. Zicsi, A &amp; Csuzdi, Cs. (2000): Weitere neue und wenig bekannte Regenwurmarten aus dem Upemba National park, Republik Kongo (Oligochaeta). – Ber. Nat.-med. Verein Innsbruck 87: 119-131.
 45. Csuzdi, Cs. (2000): A review of Benhamiinae earthworms in the collection of the Natural History Museum, London (Oligochaeta: Acanthodrilidae: Benhamiinae). – Opusc. Zool. Budapest, 32: 51-80.
 46. Zicsi, A. &amp; Csuzdi, Cs. (2001): Weitere Angaben zur Regenwurmfauna Chiles (Oligochaeta: Acanthodrilidae, Lumbricidae). Regenwürmer aus Südamerika 33. - Ber. Nat.-med. Verein Innsbruck 88: 129-140.
@@ -572,9 +691,43 @@
 53. Pavlicek, T., Csuzdi, Cs. &amp; Nevo, E. (2003): Species richness and zoogeographic affinities of earthworms in the Levant. – Pedobiologia, 47: 452-457.
 54. Csuzdi, Cs. &amp; Zicsi, A. (2003): Earthworms of Hungary (Annelida: Oligochaeta; Lumbricidae). – Hungarian Natural History Museum Budapest, pp 271.
 55. Dózsa-Farkas, K., Török, J., Farkas, J., Nagy, D., Csuzdi, Cs., Hufnagel, J. &amp; Bíró, J. (2003): A Tisza-parti fauna néhány jellegzetes csoportjának (Testacea, Oligochaeta, Collembola, Heteroptera, Mammalia) vizsgálata a márciusi ökológiai katasztrófára tekintettel. – In: Kálmán E. &amp; Csanádi A. (eds.) A Tiszának és környezetének állapota a 2000 évi rendkívüli vízszennyezések után. Bay Zoltán Alapítvány Budapest, p. 52a-46.
-56. Csuzdi, Cs. (2004): Towards a phylogenetic concept of Lumbricid systematics. - In: A.G. Moreno ans S. Borges (eds.) Advances in earthworm taxonomy (Annelida: Oligochaeta). Editolial Complutense Madrid, p. 333-346.
-2005-2008
-57. Csuzdi Cs. &amp; Pavlicek, T (2005): Earthworms of Jordan. – Zoology in the Middle East, 34: 71-78.
+56. Csuzdi, Cs. (2004): Towards a phylogenetic concept of Lumbricid systematics. - In: A.G. Moreno ans S. Borges (eds.) Advances in earthworm taxonomy (Annelida: Oligochaeta). Editolial Complutense Madrid, p. 333-346.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Csaba_Csuzdi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Csaba Csuzdi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2005-2008</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>57. Csuzdi Cs. &amp; Pavlicek, T (2005): Earthworms of Jordan. – Zoology in the Middle East, 34: 71-78.
 58. Csuzdi, Cs. &amp; Pavlicek, T. (2005): Earthworms from Israel II. Remarks on the genus Perelia Easton, 1983 with descriptions of a new genus and two new species. – Acta zool. hung. 51(2): 75-96.
 59. Csuzdi, Cs. (2005): Earthworms (Annelida: Oligochaeta) from Sao Tomé. – J. Nat. Hist., 39(33): 3039-3058.
 60. Szlavecz, K., Placella, S.A., Pouyat, R., Groffman, P., Csuzdi, Cs. and Yesilonis, I. (2006): Invasive earthworm species and nitrogen cycling in remnant forest patches. – Applied Soil Ecology, 32(6): 54-62.
